--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tgfb1-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tgfb1-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>47.02830350000001</v>
+        <v>65.4989545</v>
       </c>
       <c r="H2">
-        <v>94.05660700000001</v>
+        <v>130.997909</v>
       </c>
       <c r="I2">
-        <v>0.1170896029811303</v>
+        <v>0.148361342241837</v>
       </c>
       <c r="J2">
-        <v>0.0821367614850643</v>
+        <v>0.1055160416597095</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9991829999999999</v>
+        <v>4.020434</v>
       </c>
       <c r="N2">
-        <v>1.998366</v>
+        <v>8.040868</v>
       </c>
       <c r="O2">
-        <v>0.01488714493203248</v>
+        <v>0.06420203970218387</v>
       </c>
       <c r="P2">
-        <v>0.01137801272088475</v>
+        <v>0.04878916602310146</v>
       </c>
       <c r="Q2">
-        <v>46.9898813760405</v>
+        <v>263.334223636253</v>
       </c>
       <c r="R2">
-        <v>187.959525504162</v>
+        <v>1053.336894545012</v>
       </c>
       <c r="S2">
-        <v>0.001743129889614229</v>
+        <v>0.009525100784879706</v>
       </c>
       <c r="T2">
-        <v>0.0009345531170293383</v>
+        <v>0.005148039674636058</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>47.02830350000001</v>
+        <v>65.4989545</v>
       </c>
       <c r="H3">
-        <v>94.05660700000001</v>
+        <v>130.997909</v>
       </c>
       <c r="I3">
-        <v>0.1170896029811303</v>
+        <v>0.148361342241837</v>
       </c>
       <c r="J3">
-        <v>0.0821367614850643</v>
+        <v>0.1055160416597095</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>118.695864</v>
       </c>
       <c r="O3">
-        <v>0.5894957947979553</v>
+        <v>0.6318154186847339</v>
       </c>
       <c r="P3">
-        <v>0.6758136650185235</v>
+        <v>0.7202048603398876</v>
       </c>
       <c r="Q3">
-        <v>1860.688372128908</v>
+        <v>2591.484998491396</v>
       </c>
       <c r="R3">
-        <v>11164.13023277345</v>
+        <v>15548.90999094838</v>
       </c>
       <c r="S3">
-        <v>0.06902382857193848</v>
+        <v>0.09373698356515532</v>
       </c>
       <c r="T3">
-        <v>0.0555091458119736</v>
+        <v>0.07599316604714886</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,78 +667,78 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>47.02830350000001</v>
+        <v>65.4989545</v>
       </c>
       <c r="H4">
-        <v>94.05660700000001</v>
+        <v>130.997909</v>
       </c>
       <c r="I4">
-        <v>0.1170896029811303</v>
+        <v>0.148361342241837</v>
       </c>
       <c r="J4">
-        <v>0.0821367614850643</v>
+        <v>0.1055160416597095</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.06171066666666666</v>
+        <v>19.035871</v>
       </c>
       <c r="N4">
-        <v>0.185132</v>
+        <v>38.071742</v>
       </c>
       <c r="O4">
-        <v>0.0009194468265763251</v>
+        <v>0.3039825416130822</v>
       </c>
       <c r="P4">
-        <v>0.001054078307498645</v>
+        <v>0.2310059736370109</v>
       </c>
       <c r="Q4">
-        <v>2.902147961187334</v>
+        <v>1246.829648496869</v>
       </c>
       <c r="R4">
-        <v>17.412887767124</v>
+        <v>4987.318593987477</v>
       </c>
       <c r="S4">
-        <v>0.0001076576638860821</v>
+        <v>0.04509925789180194</v>
       </c>
       <c r="T4">
-        <v>8.657857852959643E-05</v>
+        <v>0.0243748359379246</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>47.02830350000001</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H5">
-        <v>94.05660700000001</v>
+        <v>36.993797</v>
       </c>
       <c r="I5">
-        <v>0.1170896029811303</v>
+        <v>0.02793148592696006</v>
       </c>
       <c r="J5">
-        <v>0.0821367614850643</v>
+        <v>0.02979772009492791</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.7183095</v>
+        <v>4.020434</v>
       </c>
       <c r="N5">
-        <v>49.436619</v>
+        <v>8.040868</v>
       </c>
       <c r="O5">
-        <v>0.3682859456189059</v>
+        <v>0.06420203970218387</v>
       </c>
       <c r="P5">
-        <v>0.2814752051723923</v>
+        <v>0.04878916602310146</v>
       </c>
       <c r="Q5">
-        <v>1162.460161172933</v>
+        <v>49.57703974929933</v>
       </c>
       <c r="R5">
-        <v>4649.840644691733</v>
+        <v>297.462238495796</v>
       </c>
       <c r="S5">
-        <v>0.04312245515604785</v>
+        <v>0.00179325836842368</v>
       </c>
       <c r="T5">
-        <v>0.02311946179120433</v>
+        <v>0.001453805912821344</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,25 +782,25 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>47.02830350000001</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H6">
-        <v>94.05660700000001</v>
+        <v>36.993797</v>
       </c>
       <c r="I6">
-        <v>0.1170896029811303</v>
+        <v>0.02793148592696006</v>
       </c>
       <c r="J6">
-        <v>0.0821367614850643</v>
+        <v>0.02979772009492791</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.772676333333333</v>
+        <v>39.565288</v>
       </c>
       <c r="N6">
-        <v>5.318029</v>
+        <v>118.695864</v>
       </c>
       <c r="O6">
-        <v>0.02641166782452989</v>
+        <v>0.6318154186847339</v>
       </c>
       <c r="P6">
-        <v>0.03027903878070085</v>
+        <v>0.7202048603398876</v>
       </c>
       <c r="Q6">
-        <v>83.36596061126718</v>
+        <v>487.8900775061787</v>
       </c>
       <c r="R6">
-        <v>500.1957636676031</v>
+        <v>4391.010697555608</v>
       </c>
       <c r="S6">
-        <v>0.003092531699643699</v>
+        <v>0.01764754347542902</v>
       </c>
       <c r="T6">
-        <v>0.002487022186327438</v>
+        <v>0.02146046283941461</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>36.993797</v>
       </c>
       <c r="I7">
-        <v>0.03070200057641551</v>
+        <v>0.02793148592696006</v>
       </c>
       <c r="J7">
-        <v>0.03230555276798244</v>
+        <v>0.02979772009492791</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,33 +871,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9991829999999999</v>
+        <v>19.035871</v>
       </c>
       <c r="N7">
-        <v>1.998366</v>
+        <v>38.071742</v>
       </c>
       <c r="O7">
-        <v>0.01488714493203248</v>
+        <v>0.3039825416130822</v>
       </c>
       <c r="P7">
-        <v>0.01137801272088475</v>
+        <v>0.2310059736370109</v>
       </c>
       <c r="Q7">
-        <v>12.321191022617</v>
+        <v>234.7363824973957</v>
       </c>
       <c r="R7">
-        <v>73.927146135702</v>
+        <v>1408.418294984374</v>
       </c>
       <c r="S7">
-        <v>0.0004570651322844423</v>
+        <v>0.008490684083107358</v>
       </c>
       <c r="T7">
-        <v>0.0003675729903493179</v>
+        <v>0.006883451342691947</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,61 +915,61 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.33126566666667</v>
+        <v>124.0818353333333</v>
       </c>
       <c r="H8">
-        <v>36.993797</v>
+        <v>372.245506</v>
       </c>
       <c r="I8">
-        <v>0.03070200057641551</v>
+        <v>0.2810571218794634</v>
       </c>
       <c r="J8">
-        <v>0.03230555276798244</v>
+        <v>0.2998358723324023</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>39.565288</v>
+        <v>4.020434</v>
       </c>
       <c r="N8">
-        <v>118.695864</v>
+        <v>8.040868</v>
       </c>
       <c r="O8">
-        <v>0.5894957947979553</v>
+        <v>0.06420203970218387</v>
       </c>
       <c r="P8">
-        <v>0.6758136650185235</v>
+        <v>0.04878916602310146</v>
       </c>
       <c r="Q8">
-        <v>487.8900775061787</v>
+        <v>498.8628295565346</v>
       </c>
       <c r="R8">
-        <v>4391.010697555608</v>
+        <v>2993.176977339207</v>
       </c>
       <c r="S8">
-        <v>0.01809870023168134</v>
+        <v>0.01804444049748684</v>
       </c>
       <c r="T8">
-        <v>0.02183253401657952</v>
+        <v>0.01462874215490703</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -977,51 +977,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.33126566666667</v>
+        <v>124.0818353333333</v>
       </c>
       <c r="H9">
-        <v>36.993797</v>
+        <v>372.245506</v>
       </c>
       <c r="I9">
-        <v>0.03070200057641551</v>
+        <v>0.2810571218794634</v>
       </c>
       <c r="J9">
-        <v>0.03230555276798244</v>
+        <v>0.2998358723324023</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.06171066666666666</v>
+        <v>39.565288</v>
       </c>
       <c r="N9">
-        <v>0.185132</v>
+        <v>118.695864</v>
       </c>
       <c r="O9">
-        <v>0.0009194468265763251</v>
+        <v>0.6318154186847339</v>
       </c>
       <c r="P9">
-        <v>0.001054078307498645</v>
+        <v>0.7202048603398876</v>
       </c>
       <c r="Q9">
-        <v>0.7609706251337778</v>
+        <v>4909.333550531909</v>
       </c>
       <c r="R9">
-        <v>6.848735626204</v>
+        <v>44184.00195478718</v>
       </c>
       <c r="S9">
-        <v>2.822885699952974E-05</v>
+        <v>0.1775762231345994</v>
       </c>
       <c r="T9">
-        <v>3.405258238448309E-05</v>
+        <v>0.2159432525580462</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.33126566666667</v>
+        <v>124.0818353333333</v>
       </c>
       <c r="H10">
-        <v>36.993797</v>
+        <v>372.245506</v>
       </c>
       <c r="I10">
-        <v>0.03070200057641551</v>
+        <v>0.2810571218794634</v>
       </c>
       <c r="J10">
-        <v>0.03230555276798244</v>
+        <v>0.2998358723324023</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,33 +1057,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.7183095</v>
+        <v>19.035871</v>
       </c>
       <c r="N10">
-        <v>49.436619</v>
+        <v>38.071742</v>
       </c>
       <c r="O10">
-        <v>0.3682859456189059</v>
+        <v>0.3039825416130822</v>
       </c>
       <c r="P10">
-        <v>0.2814752051723923</v>
+        <v>0.2310059736370109</v>
       </c>
       <c r="Q10">
-        <v>304.8080412753905</v>
+        <v>2362.005810848575</v>
       </c>
       <c r="R10">
-        <v>1828.848247652343</v>
+        <v>14172.03486509145</v>
       </c>
       <c r="S10">
-        <v>0.01130711531467738</v>
+        <v>0.08543645824737711</v>
       </c>
       <c r="T10">
-        <v>0.009093212093575404</v>
+        <v>0.0692638776194491</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.33126566666667</v>
+        <v>17.451347</v>
       </c>
       <c r="H11">
-        <v>36.993797</v>
+        <v>34.902694</v>
       </c>
       <c r="I11">
-        <v>0.03070200057641551</v>
+        <v>0.03952895560871975</v>
       </c>
       <c r="J11">
-        <v>0.03230555276798244</v>
+        <v>0.0281133809100731</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.772676333333333</v>
+        <v>4.020434</v>
       </c>
       <c r="N11">
-        <v>5.318029</v>
+        <v>8.040868</v>
       </c>
       <c r="O11">
-        <v>0.02641166782452989</v>
+        <v>0.06420203970218387</v>
       </c>
       <c r="P11">
-        <v>0.03027903878070085</v>
+        <v>0.04878916602310146</v>
       </c>
       <c r="Q11">
-        <v>21.85934280734589</v>
+        <v>70.16198882459798</v>
       </c>
       <c r="R11">
-        <v>196.734085266113</v>
+        <v>280.6479552983919</v>
       </c>
       <c r="S11">
-        <v>0.0008108910407728116</v>
+        <v>0.002537839577376889</v>
       </c>
       <c r="T11">
-        <v>0.0009781810850937179</v>
+        <v>0.001371628408692248</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>129.0494106666667</v>
+        <v>17.451347</v>
       </c>
       <c r="H12">
-        <v>387.148232</v>
+        <v>34.902694</v>
       </c>
       <c r="I12">
-        <v>0.3213031969122349</v>
+        <v>0.03952895560871975</v>
       </c>
       <c r="J12">
-        <v>0.3380847237148192</v>
+        <v>0.0281133809100731</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9991829999999999</v>
+        <v>39.565288</v>
       </c>
       <c r="N12">
-        <v>1.998366</v>
+        <v>118.695864</v>
       </c>
       <c r="O12">
-        <v>0.01488714493203248</v>
+        <v>0.6318154186847339</v>
       </c>
       <c r="P12">
-        <v>0.01137801272088475</v>
+        <v>0.7202048603398876</v>
       </c>
       <c r="Q12">
-        <v>128.943977298152</v>
+        <v>690.467570042936</v>
       </c>
       <c r="R12">
-        <v>773.663863788912</v>
+        <v>4142.805420257616</v>
       </c>
       <c r="S12">
-        <v>0.00478328725955781</v>
+        <v>0.02497500363809353</v>
       </c>
       <c r="T12">
-        <v>0.00384673228716402</v>
+        <v>0.02024739357202126</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>129.0494106666667</v>
+        <v>17.451347</v>
       </c>
       <c r="H13">
-        <v>387.148232</v>
+        <v>34.902694</v>
       </c>
       <c r="I13">
-        <v>0.3213031969122349</v>
+        <v>0.03952895560871975</v>
       </c>
       <c r="J13">
-        <v>0.3380847237148192</v>
+        <v>0.0281133809100731</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>39.565288</v>
+        <v>19.035871</v>
       </c>
       <c r="N13">
-        <v>118.695864</v>
+        <v>38.071742</v>
       </c>
       <c r="O13">
-        <v>0.5894957947979553</v>
+        <v>0.3039825416130822</v>
       </c>
       <c r="P13">
-        <v>0.6758136650185235</v>
+        <v>0.2310059736370109</v>
       </c>
       <c r="Q13">
-        <v>5105.877099256939</v>
+        <v>332.201590268237</v>
       </c>
       <c r="R13">
-        <v>45952.89389331245</v>
+        <v>1328.806361072948</v>
       </c>
       <c r="S13">
-        <v>0.1894068834349018</v>
+        <v>0.01201611239324933</v>
       </c>
       <c r="T13">
-        <v>0.2284822762204869</v>
+        <v>0.006494358929359593</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,51 +1287,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>129.0494106666667</v>
+        <v>138.4374973333333</v>
       </c>
       <c r="H14">
-        <v>387.148232</v>
+        <v>415.312492</v>
       </c>
       <c r="I14">
-        <v>0.3213031969122349</v>
+        <v>0.3135740574450553</v>
       </c>
       <c r="J14">
-        <v>0.3380847237148192</v>
+        <v>0.3345254175596786</v>
       </c>
       <c r="K14">
         <v>2</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.06171066666666666</v>
+        <v>4.020434</v>
       </c>
       <c r="N14">
-        <v>0.185132</v>
+        <v>8.040868</v>
       </c>
       <c r="O14">
-        <v>0.0009194468265763251</v>
+        <v>0.06420203970218387</v>
       </c>
       <c r="P14">
-        <v>0.001054078307498645</v>
+        <v>0.04878916602310146</v>
       </c>
       <c r="Q14">
-        <v>7.963725165180444</v>
+        <v>556.5788211538427</v>
       </c>
       <c r="R14">
-        <v>71.673526486624</v>
+        <v>3339.472926923056</v>
       </c>
       <c r="S14">
-        <v>0.0002954212047697824</v>
+        <v>0.02013209408566232</v>
       </c>
       <c r="T14">
-        <v>0.0003563677733644635</v>
+        <v>0.0163212161362665</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,51 +1349,51 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>129.0494106666667</v>
+        <v>138.4374973333333</v>
       </c>
       <c r="H15">
-        <v>387.148232</v>
+        <v>415.312492</v>
       </c>
       <c r="I15">
-        <v>0.3213031969122349</v>
+        <v>0.3135740574450553</v>
       </c>
       <c r="J15">
-        <v>0.3380847237148192</v>
+        <v>0.3345254175596786</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>24.7183095</v>
+        <v>39.565288</v>
       </c>
       <c r="N15">
-        <v>49.436619</v>
+        <v>118.695864</v>
       </c>
       <c r="O15">
-        <v>0.3682859456189059</v>
+        <v>0.6318154186847339</v>
       </c>
       <c r="P15">
-        <v>0.2814752051723923</v>
+        <v>0.7202048603398876</v>
       </c>
       <c r="Q15">
-        <v>3189.883273651268</v>
+        <v>5477.319451992566</v>
       </c>
       <c r="R15">
-        <v>19139.29964190761</v>
+        <v>49295.87506793309</v>
       </c>
       <c r="S15">
-        <v>0.1183314517051999</v>
+        <v>0.1981209243933184</v>
       </c>
       <c r="T15">
-        <v>0.09516246697328032</v>
+        <v>0.2409268316337109</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,51 +1411,51 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>129.0494106666667</v>
+        <v>138.4374973333333</v>
       </c>
       <c r="H16">
-        <v>387.148232</v>
+        <v>415.312492</v>
       </c>
       <c r="I16">
-        <v>0.3213031969122349</v>
+        <v>0.3135740574450553</v>
       </c>
       <c r="J16">
-        <v>0.3380847237148192</v>
+        <v>0.3345254175596786</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.772676333333333</v>
+        <v>19.035871</v>
       </c>
       <c r="N16">
-        <v>5.318029</v>
+        <v>38.071742</v>
       </c>
       <c r="O16">
-        <v>0.02641166782452989</v>
+        <v>0.3039825416130822</v>
       </c>
       <c r="P16">
-        <v>0.03027903878070085</v>
+        <v>0.2310059736370109</v>
       </c>
       <c r="Q16">
-        <v>228.7628361194142</v>
+        <v>2635.278340800177</v>
       </c>
       <c r="R16">
-        <v>2058.865525074728</v>
+        <v>15811.67004480107</v>
       </c>
       <c r="S16">
-        <v>0.008486153307805465</v>
+        <v>0.09532103896607456</v>
       </c>
       <c r="T16">
-        <v>0.01023688046052354</v>
+        <v>0.07727736978970119</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1467,22 +1467,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>12.780919</v>
+        <v>83.68172299999999</v>
       </c>
       <c r="H17">
-        <v>25.561838</v>
+        <v>251.045169</v>
       </c>
       <c r="I17">
-        <v>0.03182153341857176</v>
+        <v>0.1895470368979645</v>
       </c>
       <c r="J17">
-        <v>0.02232237221704003</v>
+        <v>0.2022115674432087</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.9991829999999999</v>
+        <v>4.020434</v>
       </c>
       <c r="N17">
-        <v>1.998366</v>
+        <v>8.040868</v>
       </c>
       <c r="O17">
-        <v>0.01488714493203248</v>
+        <v>0.06420203970218387</v>
       </c>
       <c r="P17">
-        <v>0.01137801272088475</v>
+        <v>0.04878916602310146</v>
       </c>
       <c r="Q17">
-        <v>12.770476989177</v>
+        <v>336.436844327782</v>
       </c>
       <c r="R17">
-        <v>51.081907956708</v>
+        <v>2018.621065966692</v>
       </c>
       <c r="S17">
-        <v>0.0004737317799617927</v>
+        <v>0.01216930638835443</v>
       </c>
       <c r="T17">
-        <v>0.0002539842350458058</v>
+        <v>0.009865733735778287</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1529,22 +1529,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>12.780919</v>
+        <v>83.68172299999999</v>
       </c>
       <c r="H18">
-        <v>25.561838</v>
+        <v>251.045169</v>
       </c>
       <c r="I18">
-        <v>0.03182153341857176</v>
+        <v>0.1895470368979645</v>
       </c>
       <c r="J18">
-        <v>0.02232237221704003</v>
+        <v>0.2022115674432087</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,828 +1559,84 @@
         <v>118.695864</v>
       </c>
       <c r="O18">
-        <v>0.5894957947979553</v>
+        <v>0.6318154186847339</v>
       </c>
       <c r="P18">
-        <v>0.6758136650185235</v>
+        <v>0.7202048603398876</v>
       </c>
       <c r="Q18">
-        <v>505.6807411396721</v>
+        <v>3310.891470831224</v>
       </c>
       <c r="R18">
-        <v>3034.084446838032</v>
+        <v>29798.02323748101</v>
       </c>
       <c r="S18">
-        <v>0.01875866013427066</v>
+        <v>0.1197587404781382</v>
       </c>
       <c r="T18">
-        <v>0.01508576417990548</v>
+        <v>0.1456337536895459</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>12.780919</v>
+        <v>83.68172299999999</v>
       </c>
       <c r="H19">
-        <v>25.561838</v>
+        <v>251.045169</v>
       </c>
       <c r="I19">
-        <v>0.03182153341857176</v>
+        <v>0.1895470368979645</v>
       </c>
       <c r="J19">
-        <v>0.02232237221704003</v>
+        <v>0.2022115674432087</v>
       </c>
       <c r="K19">
         <v>2</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.06171066666666666</v>
+        <v>19.035871</v>
       </c>
       <c r="N19">
-        <v>0.185132</v>
+        <v>38.071742</v>
       </c>
       <c r="O19">
-        <v>0.0009194468265763251</v>
+        <v>0.3039825416130822</v>
       </c>
       <c r="P19">
-        <v>0.001054078307498645</v>
+        <v>0.2310059736370109</v>
       </c>
       <c r="Q19">
-        <v>0.7887190321026667</v>
+        <v>1592.954484085733</v>
       </c>
       <c r="R19">
-        <v>4.732314192616</v>
+        <v>9557.726904514398</v>
       </c>
       <c r="S19">
-        <v>2.925820791849828E-05</v>
+        <v>0.05761899003147194</v>
       </c>
       <c r="T19">
-        <v>2.352952832589232E-05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>12.780919</v>
-      </c>
-      <c r="H20">
-        <v>25.561838</v>
-      </c>
-      <c r="I20">
-        <v>0.03182153341857176</v>
-      </c>
-      <c r="J20">
-        <v>0.02232237221704003</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>24.7183095</v>
-      </c>
-      <c r="N20">
-        <v>49.436619</v>
-      </c>
-      <c r="O20">
-        <v>0.3682859456189059</v>
-      </c>
-      <c r="P20">
-        <v>0.2814752051723923</v>
-      </c>
-      <c r="Q20">
-        <v>315.9227115364305</v>
-      </c>
-      <c r="R20">
-        <v>1263.690846145722</v>
-      </c>
-      <c r="S20">
-        <v>0.01171942352610232</v>
-      </c>
-      <c r="T20">
-        <v>0.006283194299725852</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>12.780919</v>
-      </c>
-      <c r="H21">
-        <v>25.561838</v>
-      </c>
-      <c r="I21">
-        <v>0.03182153341857176</v>
-      </c>
-      <c r="J21">
-        <v>0.02232237221704003</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1.772676333333333</v>
-      </c>
-      <c r="N21">
-        <v>5.318029</v>
-      </c>
-      <c r="O21">
-        <v>0.02641166782452989</v>
-      </c>
-      <c r="P21">
-        <v>0.03027903878070085</v>
-      </c>
-      <c r="Q21">
-        <v>22.65643262955033</v>
-      </c>
-      <c r="R21">
-        <v>135.938595777302</v>
-      </c>
-      <c r="S21">
-        <v>0.0008404597703184943</v>
-      </c>
-      <c r="T21">
-        <v>0.0006758999740369942</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>41.810285</v>
-      </c>
-      <c r="H22">
-        <v>125.430855</v>
-      </c>
-      <c r="I22">
-        <v>0.1040979432987182</v>
-      </c>
-      <c r="J22">
-        <v>0.1095349337872956</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0.9991829999999999</v>
-      </c>
-      <c r="N22">
-        <v>1.998366</v>
-      </c>
-      <c r="O22">
-        <v>0.01488714493203248</v>
-      </c>
-      <c r="P22">
-        <v>0.01137801272088475</v>
-      </c>
-      <c r="Q22">
-        <v>41.776125997155</v>
-      </c>
-      <c r="R22">
-        <v>250.65675598293</v>
-      </c>
-      <c r="S22">
-        <v>0.001549721169014516</v>
-      </c>
-      <c r="T22">
-        <v>0.001246289870013118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>41.810285</v>
-      </c>
-      <c r="H23">
-        <v>125.430855</v>
-      </c>
-      <c r="I23">
-        <v>0.1040979432987182</v>
-      </c>
-      <c r="J23">
-        <v>0.1095349337872956</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>39.565288</v>
-      </c>
-      <c r="N23">
-        <v>118.695864</v>
-      </c>
-      <c r="O23">
-        <v>0.5894957947979553</v>
-      </c>
-      <c r="P23">
-        <v>0.6758136650185235</v>
-      </c>
-      <c r="Q23">
-        <v>1654.23596738708</v>
-      </c>
-      <c r="R23">
-        <v>14888.12370648372</v>
-      </c>
-      <c r="S23">
-        <v>0.06136529982171035</v>
-      </c>
-      <c r="T23">
-        <v>0.07402520505035354</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>41.810285</v>
-      </c>
-      <c r="H24">
-        <v>125.430855</v>
-      </c>
-      <c r="I24">
-        <v>0.1040979432987182</v>
-      </c>
-      <c r="J24">
-        <v>0.1095349337872956</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M24">
-        <v>0.06171066666666666</v>
-      </c>
-      <c r="N24">
-        <v>0.185132</v>
-      </c>
-      <c r="O24">
-        <v>0.0009194468265763251</v>
-      </c>
-      <c r="P24">
-        <v>0.001054078307498645</v>
-      </c>
-      <c r="Q24">
-        <v>2.580140560873333</v>
-      </c>
-      <c r="R24">
-        <v>23.22126504786</v>
-      </c>
-      <c r="S24">
-        <v>9.571252361912863E-05</v>
-      </c>
-      <c r="T24">
-        <v>0.0001154583976184886</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>41.810285</v>
-      </c>
-      <c r="H25">
-        <v>125.430855</v>
-      </c>
-      <c r="I25">
-        <v>0.1040979432987182</v>
-      </c>
-      <c r="J25">
-        <v>0.1095349337872956</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>24.7183095</v>
-      </c>
-      <c r="N25">
-        <v>49.436619</v>
-      </c>
-      <c r="O25">
-        <v>0.3682859456189059</v>
-      </c>
-      <c r="P25">
-        <v>0.2814752051723923</v>
-      </c>
-      <c r="Q25">
-        <v>1033.479564913207</v>
-      </c>
-      <c r="R25">
-        <v>6200.877389479246</v>
-      </c>
-      <c r="S25">
-        <v>0.03833780948475166</v>
-      </c>
-      <c r="T25">
-        <v>0.03083136796132344</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>41.810285</v>
-      </c>
-      <c r="H26">
-        <v>125.430855</v>
-      </c>
-      <c r="I26">
-        <v>0.1040979432987182</v>
-      </c>
-      <c r="J26">
-        <v>0.1095349337872956</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>1.772676333333333</v>
-      </c>
-      <c r="N26">
-        <v>5.318029</v>
-      </c>
-      <c r="O26">
-        <v>0.02641166782452989</v>
-      </c>
-      <c r="P26">
-        <v>0.03027903878070085</v>
-      </c>
-      <c r="Q26">
-        <v>74.11610270942167</v>
-      </c>
-      <c r="R26">
-        <v>667.0449243847951</v>
-      </c>
-      <c r="S26">
-        <v>0.002749400299622491</v>
-      </c>
-      <c r="T26">
-        <v>0.003316612507987023</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>158.6435343333333</v>
-      </c>
-      <c r="H27">
-        <v>475.930603</v>
-      </c>
-      <c r="I27">
-        <v>0.3949857228129294</v>
-      </c>
-      <c r="J27">
-        <v>0.4156156560277984</v>
-      </c>
-      <c r="K27">
-        <v>2</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>0.9991829999999999</v>
-      </c>
-      <c r="N27">
-        <v>1.998366</v>
-      </c>
-      <c r="O27">
-        <v>0.01488714493203248</v>
-      </c>
-      <c r="P27">
-        <v>0.01137801272088475</v>
-      </c>
-      <c r="Q27">
-        <v>158.513922565783</v>
-      </c>
-      <c r="R27">
-        <v>951.0835353946979</v>
-      </c>
-      <c r="S27">
-        <v>0.005880209701599687</v>
-      </c>
-      <c r="T27">
-        <v>0.004728880221283152</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>158.6435343333333</v>
-      </c>
-      <c r="H28">
-        <v>475.930603</v>
-      </c>
-      <c r="I28">
-        <v>0.3949857228129294</v>
-      </c>
-      <c r="J28">
-        <v>0.4156156560277984</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>39.565288</v>
-      </c>
-      <c r="N28">
-        <v>118.695864</v>
-      </c>
-      <c r="O28">
-        <v>0.5894957947979553</v>
-      </c>
-      <c r="P28">
-        <v>0.6758136650185235</v>
-      </c>
-      <c r="Q28">
-        <v>6276.777125236223</v>
-      </c>
-      <c r="R28">
-        <v>56490.994127126</v>
-      </c>
-      <c r="S28">
-        <v>0.2328424226034527</v>
-      </c>
-      <c r="T28">
-        <v>0.2808787397392244</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>158.6435343333333</v>
-      </c>
-      <c r="H29">
-        <v>475.930603</v>
-      </c>
-      <c r="I29">
-        <v>0.3949857228129294</v>
-      </c>
-      <c r="J29">
-        <v>0.4156156560277984</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M29">
-        <v>0.06171066666666666</v>
-      </c>
-      <c r="N29">
-        <v>0.185132</v>
-      </c>
-      <c r="O29">
-        <v>0.0009194468265763251</v>
-      </c>
-      <c r="P29">
-        <v>0.001054078307498645</v>
-      </c>
-      <c r="Q29">
-        <v>9.789998266066222</v>
-      </c>
-      <c r="R29">
-        <v>88.109984394596</v>
-      </c>
-      <c r="S29">
-        <v>0.0003631683693833039</v>
-      </c>
-      <c r="T29">
-        <v>0.0004380914472757206</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>158.6435343333333</v>
-      </c>
-      <c r="H30">
-        <v>475.930603</v>
-      </c>
-      <c r="I30">
-        <v>0.3949857228129294</v>
-      </c>
-      <c r="J30">
-        <v>0.4156156560277984</v>
-      </c>
-      <c r="K30">
-        <v>2</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>24.7183095</v>
-      </c>
-      <c r="N30">
-        <v>49.436619</v>
-      </c>
-      <c r="O30">
-        <v>0.3682859456189059</v>
-      </c>
-      <c r="P30">
-        <v>0.2814752051723923</v>
-      </c>
-      <c r="Q30">
-        <v>3921.39998182521</v>
-      </c>
-      <c r="R30">
-        <v>23528.39989095126</v>
-      </c>
-      <c r="S30">
-        <v>0.1454676904321268</v>
-      </c>
-      <c r="T30">
-        <v>0.116985502053283</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>158.6435343333333</v>
-      </c>
-      <c r="H31">
-        <v>475.930603</v>
-      </c>
-      <c r="I31">
-        <v>0.3949857228129294</v>
-      </c>
-      <c r="J31">
-        <v>0.4156156560277984</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>1.772676333333333</v>
-      </c>
-      <c r="N31">
-        <v>5.318029</v>
-      </c>
-      <c r="O31">
-        <v>0.02641166782452989</v>
-      </c>
-      <c r="P31">
-        <v>0.03027903878070085</v>
-      </c>
-      <c r="Q31">
-        <v>281.2236387490541</v>
-      </c>
-      <c r="R31">
-        <v>2531.012748741487</v>
-      </c>
-      <c r="S31">
-        <v>0.01043223170636693</v>
-      </c>
-      <c r="T31">
-        <v>0.01258444256673213</v>
+        <v>0.04671208001788453</v>
       </c>
     </row>
   </sheetData>
